--- a/const/buildings.xlsx
+++ b/const/buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="540" windowWidth="22540" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="120" windowWidth="21720" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="建造列表" sheetId="9" r:id="rId1"/>
@@ -157,9 +157,6 @@
     <t>黄金</t>
   </si>
   <si>
-    <t>消耗人口</t>
-  </si>
-  <si>
     <t>建筑总时间</t>
   </si>
   <si>
@@ -184,6 +181,13 @@
     <t>建造伐木场</t>
   </si>
   <si>
+    <t>消耗工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>residential</t>
   </si>
   <si>
@@ -215,10 +219,6 @@
   </si>
   <si>
     <t>warehouse</t>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M1" sqref="M1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -713,28 +713,28 @@
         <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -754,10 +754,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G2" s="7">
-        <v>3600</v>
+        <v>60</v>
       </c>
       <c r="H2" s="7">
         <v>50</v>
@@ -766,16 +766,16 @@
         <v>100</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -795,10 +795,10 @@
         <v>100</v>
       </c>
       <c r="F3" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
-        <v>3600</v>
+        <v>60</v>
       </c>
       <c r="H3" s="7">
         <v>50</v>
@@ -807,16 +807,16 @@
         <v>100</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="5">
         <v>1</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -836,10 +836,10 @@
         <v>100</v>
       </c>
       <c r="F4" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>3600</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -848,16 +848,16 @@
         <v>100</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="5">
         <v>2</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -877,10 +877,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>3600</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -889,16 +889,16 @@
         <v>100</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="5">
         <v>3</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -918,10 +918,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>3600</v>
+        <v>60</v>
       </c>
       <c r="H6" s="7">
         <v>50</v>
@@ -930,16 +930,16 @@
         <v>100</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="5">
         <v>4</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -958,11 +958,11 @@
       <c r="E7" s="1">
         <v>300</v>
       </c>
-      <c r="F7" s="1">
-        <v>500</v>
+      <c r="F7" s="7">
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
@@ -971,16 +971,16 @@
         <v>100</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="5">
         <v>5</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -999,11 +999,11 @@
       <c r="E8" s="1">
         <v>500</v>
       </c>
-      <c r="F8" s="1">
-        <v>500</v>
+      <c r="F8" s="7">
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
@@ -1012,16 +1012,16 @@
         <v>100</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5">
         <v>6</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1040,11 +1040,11 @@
       <c r="E9" s="1">
         <v>2000</v>
       </c>
-      <c r="F9" s="1">
-        <v>1000</v>
+      <c r="F9" s="7">
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
@@ -1053,16 +1053,16 @@
         <v>100</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="5">
         <v>7</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1081,11 +1081,11 @@
       <c r="E10" s="1">
         <v>200</v>
       </c>
-      <c r="F10" s="1">
-        <v>200</v>
+      <c r="F10" s="7">
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1">
         <v>100</v>
@@ -1094,16 +1094,16 @@
         <v>100</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="5">
         <v>8</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1122,29 +1122,29 @@
       <c r="E11" s="1">
         <v>1500</v>
       </c>
-      <c r="F11" s="1">
-        <v>1500</v>
+      <c r="F11" s="7">
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>7200</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1">
         <v>1000</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="5">
         <v>9</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1163,11 +1163,11 @@
       <c r="E12" s="1">
         <v>100</v>
       </c>
-      <c r="F12" s="1">
-        <v>100</v>
+      <c r="F12" s="7">
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1">
         <v>100</v>
@@ -1176,16 +1176,16 @@
         <v>100</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="5">
         <v>10</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/const/buildings.xlsx
+++ b/const/buildings.xlsx
@@ -278,7 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -681,7 +681,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M12"/>
+      <selection activeCell="C2" sqref="C2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -949,25 +949,25 @@
       <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>500</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>300</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>300</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>60</v>
       </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5">
         <v>100</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -990,25 +990,25 @@
       <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>500</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>500</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>500</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>60</v>
       </c>
-      <c r="H8" s="1">
-        <v>100</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="5">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5">
         <v>100</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -1031,25 +1031,25 @@
       <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>1000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>1000</v>
       </c>
-      <c r="E9" s="1">
-        <v>2000</v>
+      <c r="E9" s="5">
+        <v>1000</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>60</v>
       </c>
-      <c r="H9" s="1">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5">
         <v>100</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1072,25 +1072,25 @@
       <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>200</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>200</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>200</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>60</v>
       </c>
-      <c r="H10" s="1">
-        <v>100</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="5">
+        <v>100</v>
+      </c>
+      <c r="I10" s="5">
         <v>100</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1113,25 +1113,25 @@
       <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1500</v>
+      <c r="C11" s="5">
+        <v>500</v>
+      </c>
+      <c r="D11" s="5">
+        <v>500</v>
+      </c>
+      <c r="E11" s="5">
+        <v>500</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>60</v>
       </c>
-      <c r="H11" s="1">
-        <v>100</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5">
         <v>1000</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -1154,25 +1154,25 @@
       <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="5">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5">
         <v>100</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>60</v>
       </c>
-      <c r="H12" s="1">
-        <v>100</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="5">
+        <v>100</v>
+      </c>
+      <c r="I12" s="5">
         <v>100</v>
       </c>
       <c r="J12" s="6" t="s">

--- a/const/buildings.xlsx
+++ b/const/buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="120" windowWidth="21720" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="27080" windowHeight="15440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="建造列表" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>孵化园</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>warehouse</t>
+  </si>
+  <si>
+    <t>擂台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -680,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1189,14 +1201,45 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>60</v>
+      </c>
+      <c r="H13" s="5">
+        <v>100</v>
+      </c>
+      <c r="I13" s="5">
+        <v>100</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
@@ -1249,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1357,6 +1400,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
